--- a/GACourseAndExamSchedule/ScheduleData/Dersler.xlsx
+++ b/GACourseAndExamSchedule/ScheduleData/Dersler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GAClassSchedule\Sample Input Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GACourseAndExamSchedule\GACourseAndExamSchedule\ScheduleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428D740B-A684-42EE-A435-AE7CC684CD9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3060905-A4DB-4185-A665-9BD5414ADA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="2565" windowWidth="16245" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -48,21 +48,9 @@
     <t>Mobil Programlama</t>
   </si>
   <si>
-    <t>Yapay Zeka</t>
-  </si>
-  <si>
     <t>İsim</t>
   </si>
   <si>
-    <t>Bilgisayar Programlama I</t>
-  </si>
-  <si>
-    <t>Fizik I</t>
-  </si>
-  <si>
-    <t>Matematik I</t>
-  </si>
-  <si>
     <t>Diferansiyel Denklemler</t>
   </si>
   <si>
@@ -84,15 +72,9 @@
     <t>Endüstri Mühendisliğine Giriş</t>
   </si>
   <si>
-    <t>Kimya</t>
-  </si>
-  <si>
     <t>Malzeme Bilimi</t>
   </si>
   <si>
-    <t>Yöneylem Araştırması I</t>
-  </si>
-  <si>
     <t>Ergonomi</t>
   </si>
   <si>
@@ -111,10 +93,40 @@
     <t>Üretim Planlama ve Kontrol</t>
   </si>
   <si>
-    <t>Bakım Yönetimi</t>
-  </si>
-  <si>
     <t>Çok Ölçütlü Karar Verme</t>
+  </si>
+  <si>
+    <t>Bilgisayar Programlama 1</t>
+  </si>
+  <si>
+    <t>Fizik 1</t>
+  </si>
+  <si>
+    <t>Matematik 1</t>
+  </si>
+  <si>
+    <t>Siber Güvenlik</t>
+  </si>
+  <si>
+    <t>Sayısal Görüntü İşleme</t>
+  </si>
+  <si>
+    <t>Yapay Zekaya Giriş</t>
+  </si>
+  <si>
+    <t>Lineer Cebir</t>
+  </si>
+  <si>
+    <t>Genel Muhasebe</t>
+  </si>
+  <si>
+    <t>Yöneylem Araştırması 1</t>
+  </si>
+  <si>
+    <t>Sistem Analizi ve Tasarımı</t>
+  </si>
+  <si>
+    <t>Çizelgeleme</t>
   </si>
 </sst>
 </file>
@@ -170,10 +182,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3103F028-88F4-4884-BDEF-73EE2011F453}" name="Tablo1" displayName="Tablo1" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{3772ADBD-C457-468E-8394-6267493A79B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
-    <sortCondition ref="A1:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3103F028-88F4-4884-BDEF-73EE2011F453}" name="Tablo1" displayName="Tablo1" ref="A1:B33" totalsRowShown="0">
+  <autoFilter ref="A1:B33" xr:uid="{3772ADBD-C457-468E-8394-6267493A79B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{440562BE-E2D9-4B97-9588-4CA7C0FE077F}" name="ID"/>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +610,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +634,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +642,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +650,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +666,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +698,39 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
